--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H2">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I2">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J2">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.2841165</v>
+        <v>22.4540125</v>
       </c>
       <c r="N2">
-        <v>50.568233</v>
+        <v>44.90802499999999</v>
       </c>
       <c r="O2">
-        <v>0.1471617541362022</v>
+        <v>0.1288642936640883</v>
       </c>
       <c r="P2">
-        <v>0.1078457808771122</v>
+        <v>0.09337691147445593</v>
       </c>
       <c r="Q2">
-        <v>411.4389083346378</v>
+        <v>409.2214924718937</v>
       </c>
       <c r="R2">
-        <v>1645.755633338551</v>
+        <v>1636.885969887575</v>
       </c>
       <c r="S2">
-        <v>0.01693680001048998</v>
+        <v>0.01353204262302113</v>
       </c>
       <c r="T2">
-        <v>0.009006159828766203</v>
+        <v>0.007006038033208263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H3">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I3">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J3">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>69.312236</v>
       </c>
       <c r="O3">
-        <v>0.1344732272645348</v>
+        <v>0.1325950441213806</v>
       </c>
       <c r="P3">
-        <v>0.1478207121802869</v>
+        <v>0.1441203999745836</v>
       </c>
       <c r="Q3">
-        <v>375.9639734570487</v>
+        <v>421.0688648258913</v>
       </c>
       <c r="R3">
-        <v>2255.783840742292</v>
+        <v>2526.413188955348</v>
       </c>
       <c r="S3">
-        <v>0.01547648144256736</v>
+        <v>0.01392380881960258</v>
       </c>
       <c r="T3">
-        <v>0.01234445102135886</v>
+        <v>0.01081330478422747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H4">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I4">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J4">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.00989166666667</v>
+        <v>39.68490633333334</v>
       </c>
       <c r="N4">
-        <v>123.029675</v>
+        <v>119.054719</v>
       </c>
       <c r="O4">
-        <v>0.2386908632778325</v>
+        <v>0.2277529427655973</v>
       </c>
       <c r="P4">
-        <v>0.2623827368346512</v>
+        <v>0.2475495628382506</v>
       </c>
       <c r="Q4">
-        <v>667.3385268674542</v>
+        <v>723.2523184145361</v>
       </c>
       <c r="R4">
-        <v>4004.031161204725</v>
+        <v>4339.513910487217</v>
       </c>
       <c r="S4">
-        <v>0.02747085640149589</v>
+        <v>0.02391634207887201</v>
       </c>
       <c r="T4">
-        <v>0.02191148179393893</v>
+        <v>0.01857355983361376</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H5">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I5">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J5">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.2571535</v>
+        <v>19.3493775</v>
       </c>
       <c r="N5">
-        <v>42.514307</v>
+        <v>38.69875500000001</v>
       </c>
       <c r="O5">
-        <v>0.1237235240947616</v>
+        <v>0.1110466944105114</v>
       </c>
       <c r="P5">
-        <v>0.09066934644254382</v>
+        <v>0.08046602405264225</v>
       </c>
       <c r="Q5">
-        <v>345.9096555872073</v>
+        <v>352.6399185424913</v>
       </c>
       <c r="R5">
-        <v>1383.638622348829</v>
+        <v>1410.559674169965</v>
       </c>
       <c r="S5">
-        <v>0.01423930148485857</v>
+        <v>0.01166101609050615</v>
       </c>
       <c r="T5">
-        <v>0.00757176237206536</v>
+        <v>0.006037338523967787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H6">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I6">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J6">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.46529166666667</v>
+        <v>31.225308</v>
       </c>
       <c r="N6">
-        <v>52.395875</v>
+        <v>93.67592400000001</v>
       </c>
       <c r="O6">
-        <v>0.1016536590537803</v>
+        <v>0.1792030382036889</v>
       </c>
       <c r="P6">
-        <v>0.1117435535885654</v>
+        <v>0.1947796293120408</v>
       </c>
       <c r="Q6">
-        <v>284.2061156093542</v>
+        <v>569.077225847922</v>
       </c>
       <c r="R6">
-        <v>1705.236693656125</v>
+        <v>3414.463355087532</v>
       </c>
       <c r="S6">
-        <v>0.01169928765686595</v>
+        <v>0.01881811541580655</v>
       </c>
       <c r="T6">
-        <v>0.009331661334064321</v>
+        <v>0.01461424959881729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H7">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I7">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J7">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.69120433333333</v>
+        <v>38.42773333333333</v>
       </c>
       <c r="N7">
-        <v>131.073613</v>
+        <v>115.2832</v>
       </c>
       <c r="O7">
-        <v>0.2542969721728885</v>
+        <v>0.2205379868347335</v>
       </c>
       <c r="P7">
-        <v>0.2795378700768406</v>
+        <v>0.2397074723480268</v>
       </c>
       <c r="Q7">
-        <v>710.9705183779018</v>
+        <v>700.3405020362666</v>
       </c>
       <c r="R7">
-        <v>4265.823110267411</v>
+        <v>4202.043012217599</v>
       </c>
       <c r="S7">
-        <v>0.02926695856709566</v>
+        <v>0.02315869938046737</v>
       </c>
       <c r="T7">
-        <v>0.02334410039622795</v>
+        <v>0.01798517044091685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>71.79459</v>
       </c>
       <c r="I8">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J8">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.2841165</v>
+        <v>22.4540125</v>
       </c>
       <c r="N8">
-        <v>50.568233</v>
+        <v>44.90802499999999</v>
       </c>
       <c r="O8">
-        <v>0.1471617541362022</v>
+        <v>0.1288642936640883</v>
       </c>
       <c r="P8">
-        <v>0.1078457808771122</v>
+        <v>0.09337691147445593</v>
       </c>
       <c r="Q8">
-        <v>605.0875925432449</v>
+        <v>537.358873764125</v>
       </c>
       <c r="R8">
-        <v>3630.52555525947</v>
+        <v>3224.153242584749</v>
       </c>
       <c r="S8">
-        <v>0.02490830919519776</v>
+        <v>0.01776926021092159</v>
       </c>
       <c r="T8">
-        <v>0.01986752635125921</v>
+        <v>0.01379970300801829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>71.79459</v>
       </c>
       <c r="I9">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J9">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>69.312236</v>
       </c>
       <c r="O9">
-        <v>0.1344732272645348</v>
+        <v>0.1325950441213806</v>
       </c>
       <c r="P9">
-        <v>0.1478207121802869</v>
+        <v>0.1441203999745836</v>
       </c>
       <c r="Q9">
         <v>552.9159517336933</v>
@@ -1013,10 +1013,10 @@
         <v>4976.24356560324</v>
       </c>
       <c r="S9">
-        <v>0.02276067408167123</v>
+        <v>0.0182836981034727</v>
       </c>
       <c r="T9">
-        <v>0.0272317736551067</v>
+        <v>0.02129882736151665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>71.79459</v>
       </c>
       <c r="I10">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J10">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.00989166666667</v>
+        <v>39.68490633333334</v>
       </c>
       <c r="N10">
-        <v>123.029675</v>
+        <v>119.054719</v>
       </c>
       <c r="O10">
-        <v>0.2386908632778325</v>
+        <v>0.2277529427655973</v>
       </c>
       <c r="P10">
-        <v>0.2623827368346512</v>
+        <v>0.2475495628382506</v>
       </c>
       <c r="Q10">
-        <v>981.4294527175833</v>
+        <v>949.7205264633567</v>
       </c>
       <c r="R10">
-        <v>8832.86507445825</v>
+        <v>8547.484738170211</v>
       </c>
       <c r="S10">
-        <v>0.04040034626857132</v>
+        <v>0.03140514093341003</v>
       </c>
       <c r="T10">
-        <v>0.04833657743289856</v>
+        <v>0.03658410192617183</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>71.79459</v>
       </c>
       <c r="I11">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J11">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.2571535</v>
+        <v>19.3493775</v>
       </c>
       <c r="N11">
-        <v>42.514307</v>
+        <v>38.69875500000001</v>
       </c>
       <c r="O11">
-        <v>0.1237235240947616</v>
+        <v>0.1110466944105114</v>
       </c>
       <c r="P11">
-        <v>0.09066934644254382</v>
+        <v>0.08046602405264225</v>
       </c>
       <c r="Q11">
-        <v>508.716206699855</v>
+        <v>463.060208122575</v>
       </c>
       <c r="R11">
-        <v>3052.29724019913</v>
+        <v>2778.36124873545</v>
       </c>
       <c r="S11">
-        <v>0.02094120045633314</v>
+        <v>0.01531236894594459</v>
       </c>
       <c r="T11">
-        <v>0.01670325547321426</v>
+        <v>0.01189166804329656</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>71.79459</v>
       </c>
       <c r="I12">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J12">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.46529166666667</v>
+        <v>31.225308</v>
       </c>
       <c r="N12">
-        <v>52.395875</v>
+        <v>93.67592400000001</v>
       </c>
       <c r="O12">
-        <v>0.1016536590537803</v>
+        <v>0.1792030382036889</v>
       </c>
       <c r="P12">
-        <v>0.1117435535885654</v>
+        <v>0.1947796293120408</v>
       </c>
       <c r="Q12">
-        <v>417.9711514795833</v>
+        <v>747.26939516124</v>
       </c>
       <c r="R12">
-        <v>3761.74036331625</v>
+        <v>6725.42455645116</v>
       </c>
       <c r="S12">
-        <v>0.0172056984873347</v>
+        <v>0.02471053327409397</v>
       </c>
       <c r="T12">
-        <v>0.02058558042278803</v>
+        <v>0.02878549947813766</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>71.79459</v>
       </c>
       <c r="I13">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J13">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>43.69120433333333</v>
+        <v>38.42773333333333</v>
       </c>
       <c r="N13">
-        <v>131.073613</v>
+        <v>115.2832</v>
       </c>
       <c r="O13">
-        <v>0.2542969721728885</v>
+        <v>0.2205379868347335</v>
       </c>
       <c r="P13">
-        <v>0.2795378700768406</v>
+        <v>0.2397074723480268</v>
       </c>
       <c r="Q13">
-        <v>1045.597367239297</v>
+        <v>919.6344530986665</v>
       </c>
       <c r="R13">
-        <v>9410.37630515367</v>
+        <v>8276.710077887999</v>
       </c>
       <c r="S13">
-        <v>0.04304180557961086</v>
+        <v>0.03041026154750316</v>
       </c>
       <c r="T13">
-        <v>0.05149692417040262</v>
+        <v>0.03542515890676497</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H14">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I14">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J14">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.2841165</v>
+        <v>22.4540125</v>
       </c>
       <c r="N14">
-        <v>50.568233</v>
+        <v>44.90802499999999</v>
       </c>
       <c r="O14">
-        <v>0.1471617541362022</v>
+        <v>0.1288642936640883</v>
       </c>
       <c r="P14">
-        <v>0.1078457808771122</v>
+        <v>0.09337691147445593</v>
       </c>
       <c r="Q14">
-        <v>886.9924112019759</v>
+        <v>899.0267308942249</v>
       </c>
       <c r="R14">
-        <v>5321.954467211855</v>
+        <v>5394.16038536535</v>
       </c>
       <c r="S14">
-        <v>0.03651286442538287</v>
+        <v>0.02972881010772318</v>
       </c>
       <c r="T14">
-        <v>0.02912362659570275</v>
+        <v>0.02308755375286807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H15">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I15">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J15">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>69.312236</v>
       </c>
       <c r="O15">
-        <v>0.1344732272645348</v>
+        <v>0.1325950441213806</v>
       </c>
       <c r="P15">
-        <v>0.1478207121802869</v>
+        <v>0.1441203999745836</v>
       </c>
       <c r="Q15">
-        <v>810.5144763569966</v>
+        <v>925.0544558134693</v>
       </c>
       <c r="R15">
-        <v>7294.630287212969</v>
+        <v>8325.490102321224</v>
       </c>
       <c r="S15">
-        <v>0.03336466560061058</v>
+        <v>0.03058948895638281</v>
       </c>
       <c r="T15">
-        <v>0.03991880989350025</v>
+        <v>0.0356339423606689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H16">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I16">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J16">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.00989166666667</v>
+        <v>39.68490633333334</v>
       </c>
       <c r="N16">
-        <v>123.029675</v>
+        <v>119.054719</v>
       </c>
       <c r="O16">
-        <v>0.2386908632778325</v>
+        <v>0.2277529427655973</v>
       </c>
       <c r="P16">
-        <v>0.2623827368346512</v>
+        <v>0.2475495628382506</v>
       </c>
       <c r="Q16">
-        <v>1438.668529016961</v>
+        <v>1588.927217649861</v>
       </c>
       <c r="R16">
-        <v>12948.01676115265</v>
+        <v>14300.34495884875</v>
       </c>
       <c r="S16">
-        <v>0.05922250099285211</v>
+        <v>0.052542281453101</v>
       </c>
       <c r="T16">
-        <v>0.07085615024141076</v>
+        <v>0.06120692736866305</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H17">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I17">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J17">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.2571535</v>
+        <v>19.3493775</v>
       </c>
       <c r="N17">
-        <v>42.514307</v>
+        <v>38.69875500000001</v>
       </c>
       <c r="O17">
-        <v>0.1237235240947616</v>
+        <v>0.1110466944105114</v>
       </c>
       <c r="P17">
-        <v>0.09066934644254382</v>
+        <v>0.08046602405264225</v>
       </c>
       <c r="Q17">
-        <v>745.7224711907778</v>
+        <v>774.7215602851951</v>
       </c>
       <c r="R17">
-        <v>4474.334827144667</v>
+        <v>4648.32936171117</v>
       </c>
       <c r="S17">
-        <v>0.03069751572355921</v>
+        <v>0.02561831518532163</v>
       </c>
       <c r="T17">
-        <v>0.02448515062891503</v>
+        <v>0.01989532129795448</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H18">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I18">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J18">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.46529166666667</v>
+        <v>31.225308</v>
       </c>
       <c r="N18">
-        <v>52.395875</v>
+        <v>93.67592400000001</v>
       </c>
       <c r="O18">
-        <v>0.1016536590537803</v>
+        <v>0.1792030382036889</v>
       </c>
       <c r="P18">
-        <v>0.1117435535885654</v>
+        <v>0.1947796293120408</v>
       </c>
       <c r="Q18">
-        <v>612.7001181853614</v>
+        <v>1250.216929932024</v>
       </c>
       <c r="R18">
-        <v>5514.301063668251</v>
+        <v>11251.95236938822</v>
       </c>
       <c r="S18">
-        <v>0.02522167728402807</v>
+        <v>0.04134188720555713</v>
       </c>
       <c r="T18">
-        <v>0.03017621554336528</v>
+        <v>0.04815949778908302</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H19">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I19">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J19">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.69120433333333</v>
+        <v>38.42773333333333</v>
       </c>
       <c r="N19">
-        <v>131.073613</v>
+        <v>115.2832</v>
       </c>
       <c r="O19">
-        <v>0.2542969721728885</v>
+        <v>0.2205379868347335</v>
       </c>
       <c r="P19">
-        <v>0.2795378700768406</v>
+        <v>0.2397074723480268</v>
       </c>
       <c r="Q19">
-        <v>1532.731692639588</v>
+        <v>1538.591798429866</v>
       </c>
       <c r="R19">
-        <v>13794.5852337563</v>
+        <v>13847.3261858688</v>
       </c>
       <c r="S19">
-        <v>0.06309459222768175</v>
+        <v>0.05087780133447824</v>
       </c>
       <c r="T19">
-        <v>0.07548887384618816</v>
+        <v>0.05926796105601707</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H20">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I20">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J20">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.2841165</v>
+        <v>22.4540125</v>
       </c>
       <c r="N20">
-        <v>50.568233</v>
+        <v>44.90802499999999</v>
       </c>
       <c r="O20">
-        <v>0.1471617541362022</v>
+        <v>0.1288642936640883</v>
       </c>
       <c r="P20">
-        <v>0.1078457808771122</v>
+        <v>0.09337691147445593</v>
       </c>
       <c r="Q20">
-        <v>459.696691410926</v>
+        <v>373.4459073008624</v>
       </c>
       <c r="R20">
-        <v>1838.786765643704</v>
+        <v>1493.78362920345</v>
       </c>
       <c r="S20">
-        <v>0.01892332195665443</v>
+        <v>0.01234902376329893</v>
       </c>
       <c r="T20">
-        <v>0.01006249479991942</v>
+        <v>0.006393545495598592</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H21">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I21">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J21">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>69.312236</v>
       </c>
       <c r="O21">
-        <v>0.1344732272645348</v>
+        <v>0.1325950441213806</v>
       </c>
       <c r="P21">
-        <v>0.1478207121802869</v>
+        <v>0.1441203999745836</v>
       </c>
       <c r="Q21">
-        <v>420.0608916338613</v>
+        <v>384.257540607668</v>
       </c>
       <c r="R21">
-        <v>2520.365349803168</v>
+        <v>2305.545243646008</v>
       </c>
       <c r="S21">
-        <v>0.01729172222099216</v>
+        <v>0.01270654037819719</v>
       </c>
       <c r="T21">
-        <v>0.01379233508753979</v>
+        <v>0.009867967568550759</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H22">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I22">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J22">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>41.00989166666667</v>
+        <v>39.68490633333334</v>
       </c>
       <c r="N22">
-        <v>123.029675</v>
+        <v>119.054719</v>
       </c>
       <c r="O22">
-        <v>0.2386908632778325</v>
+        <v>0.2277529427655973</v>
       </c>
       <c r="P22">
-        <v>0.2623827368346512</v>
+        <v>0.2475495628382506</v>
       </c>
       <c r="Q22">
-        <v>745.6108468052333</v>
+        <v>660.023051639497</v>
       </c>
       <c r="R22">
-        <v>4473.6650808314</v>
+        <v>3960.138309836982</v>
       </c>
       <c r="S22">
-        <v>0.03069292072815172</v>
+        <v>0.02182549116130694</v>
       </c>
       <c r="T22">
-        <v>0.02448148553901965</v>
+        <v>0.01694979377053893</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H23">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I23">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J23">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.2571535</v>
+        <v>19.3493775</v>
       </c>
       <c r="N23">
-        <v>42.514307</v>
+        <v>38.69875500000001</v>
       </c>
       <c r="O23">
-        <v>0.1237235240947616</v>
+        <v>0.1110466944105114</v>
       </c>
       <c r="P23">
-        <v>0.09066934644254382</v>
+        <v>0.08046602405264225</v>
       </c>
       <c r="Q23">
-        <v>386.481494528954</v>
+        <v>321.8108939858475</v>
       </c>
       <c r="R23">
-        <v>1545.925978115816</v>
+        <v>1287.24357594339</v>
       </c>
       <c r="S23">
-        <v>0.01590943308470057</v>
+        <v>0.01064156896468022</v>
       </c>
       <c r="T23">
-        <v>0.008459856469765867</v>
+        <v>0.005509533111632577</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H24">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I24">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J24">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.46529166666667</v>
+        <v>31.225308</v>
       </c>
       <c r="N24">
-        <v>52.395875</v>
+        <v>93.67592400000001</v>
       </c>
       <c r="O24">
-        <v>0.1016536590537803</v>
+        <v>0.1792030382036889</v>
       </c>
       <c r="P24">
-        <v>0.1117435535885654</v>
+        <v>0.1947796293120408</v>
       </c>
       <c r="Q24">
-        <v>317.5407293228334</v>
+        <v>519.3264890544119</v>
       </c>
       <c r="R24">
-        <v>1905.244375937</v>
+        <v>3115.958934326472</v>
       </c>
       <c r="S24">
-        <v>0.01307150033402223</v>
+        <v>0.01717296944180147</v>
       </c>
       <c r="T24">
-        <v>0.01042617446658118</v>
+        <v>0.01333662039103782</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H25">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I25">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J25">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>43.69120433333333</v>
+        <v>38.42773333333333</v>
       </c>
       <c r="N25">
-        <v>131.073613</v>
+        <v>115.2832</v>
       </c>
       <c r="O25">
-        <v>0.2542969721728885</v>
+        <v>0.2205379868347335</v>
       </c>
       <c r="P25">
-        <v>0.2795378700768406</v>
+        <v>0.2397074723480268</v>
       </c>
       <c r="Q25">
-        <v>794.3604466381906</v>
+        <v>639.1142670015998</v>
       </c>
       <c r="R25">
-        <v>4766.162679829144</v>
+        <v>3834.685602009599</v>
       </c>
       <c r="S25">
-        <v>0.03269968821230679</v>
+        <v>0.0211340842579048</v>
       </c>
       <c r="T25">
-        <v>0.02608213637243663</v>
+        <v>0.0164128434523271</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H26">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I26">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J26">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.2841165</v>
+        <v>22.4540125</v>
       </c>
       <c r="N26">
-        <v>50.568233</v>
+        <v>44.90802499999999</v>
       </c>
       <c r="O26">
-        <v>0.1471617541362022</v>
+        <v>0.1288642936640883</v>
       </c>
       <c r="P26">
-        <v>0.1078457808771122</v>
+        <v>0.09337691147445593</v>
       </c>
       <c r="Q26">
-        <v>256.2843475569312</v>
+        <v>912.7694921893957</v>
       </c>
       <c r="R26">
-        <v>1537.706085341587</v>
+        <v>5476.616953136374</v>
       </c>
       <c r="S26">
-        <v>0.01054989368399806</v>
+        <v>0.03018325259186771</v>
       </c>
       <c r="T26">
-        <v>0.008414874294648014</v>
+        <v>0.02344047622915474</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H27">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I27">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J27">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>69.312236</v>
       </c>
       <c r="O27">
-        <v>0.1344732272645348</v>
+        <v>0.1325950441213806</v>
       </c>
       <c r="P27">
-        <v>0.1478207121802869</v>
+        <v>0.1441203999745836</v>
       </c>
       <c r="Q27">
-        <v>234.1870923981338</v>
+        <v>939.1950838219756</v>
       </c>
       <c r="R27">
-        <v>2107.683831583204</v>
+        <v>8452.75575439778</v>
       </c>
       <c r="S27">
-        <v>0.009640264614350313</v>
+        <v>0.03105708800591352</v>
       </c>
       <c r="T27">
-        <v>0.01153399512735548</v>
+        <v>0.03617865226421254</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H28">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I28">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J28">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>41.00989166666667</v>
+        <v>39.68490633333334</v>
       </c>
       <c r="N28">
-        <v>123.029675</v>
+        <v>119.054719</v>
       </c>
       <c r="O28">
-        <v>0.2386908632778325</v>
+        <v>0.2277529427655973</v>
       </c>
       <c r="P28">
-        <v>0.2623827368346512</v>
+        <v>0.2475495628382506</v>
       </c>
       <c r="Q28">
-        <v>415.6836300438695</v>
+        <v>1613.215980950416</v>
       </c>
       <c r="R28">
-        <v>3741.152670394826</v>
+        <v>14518.94382855375</v>
       </c>
       <c r="S28">
-        <v>0.01711153312695783</v>
+        <v>0.05334545671708391</v>
       </c>
       <c r="T28">
-        <v>0.02047291724898514</v>
+        <v>0.06214255271052774</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H29">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I29">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J29">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.2571535</v>
+        <v>19.3493775</v>
       </c>
       <c r="N29">
-        <v>42.514307</v>
+        <v>38.69875500000001</v>
       </c>
       <c r="O29">
-        <v>0.1237235240947616</v>
+        <v>0.1110466944105114</v>
       </c>
       <c r="P29">
-        <v>0.09066934644254382</v>
+        <v>0.08046602405264225</v>
       </c>
       <c r="Q29">
-        <v>215.4663270779122</v>
+        <v>786.5641597400876</v>
       </c>
       <c r="R29">
-        <v>1292.797962467473</v>
+        <v>4719.384958440525</v>
       </c>
       <c r="S29">
-        <v>0.008869628070627944</v>
+        <v>0.02600992355276821</v>
       </c>
       <c r="T29">
-        <v>0.007074649990816847</v>
+        <v>0.02019944646141493</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H30">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I30">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J30">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>17.46529166666667</v>
+        <v>31.225308</v>
       </c>
       <c r="N30">
-        <v>52.395875</v>
+        <v>93.67592400000001</v>
       </c>
       <c r="O30">
-        <v>0.1016536590537803</v>
+        <v>0.1792030382036889</v>
       </c>
       <c r="P30">
-        <v>0.1117435535885654</v>
+        <v>0.1947796293120408</v>
       </c>
       <c r="Q30">
-        <v>177.0313342640695</v>
+        <v>1269.32807784878</v>
       </c>
       <c r="R30">
-        <v>1593.282008376625</v>
+        <v>11423.95270063902</v>
       </c>
       <c r="S30">
-        <v>0.007287459312384934</v>
+        <v>0.04197385026942814</v>
       </c>
       <c r="T30">
-        <v>0.008719005500609257</v>
+        <v>0.04889567665837245</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H31">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I31">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J31">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>43.69120433333333</v>
+        <v>38.42773333333333</v>
       </c>
       <c r="N31">
-        <v>131.073613</v>
+        <v>115.2832</v>
       </c>
       <c r="O31">
-        <v>0.2542969721728885</v>
+        <v>0.2205379868347335</v>
       </c>
       <c r="P31">
-        <v>0.2795378700768406</v>
+        <v>0.2397074723480268</v>
       </c>
       <c r="Q31">
-        <v>442.8618969757119</v>
+        <v>1562.111121148444</v>
       </c>
       <c r="R31">
-        <v>3985.757072781407</v>
+        <v>14059.000090336</v>
       </c>
       <c r="S31">
-        <v>0.0182303210255538</v>
+        <v>0.05165553291345743</v>
       </c>
       <c r="T31">
-        <v>0.02181147948634752</v>
+        <v>0.06017394684404161</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H32">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I32">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J32">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>25.2841165</v>
+        <v>22.4540125</v>
       </c>
       <c r="N32">
-        <v>50.568233</v>
+        <v>44.90802499999999</v>
       </c>
       <c r="O32">
-        <v>0.1471617541362022</v>
+        <v>0.1288642936640883</v>
       </c>
       <c r="P32">
-        <v>0.1078457808771122</v>
+        <v>0.09337691147445593</v>
       </c>
       <c r="Q32">
-        <v>955.4416809552806</v>
+        <v>765.1530043169415</v>
       </c>
       <c r="R32">
-        <v>5732.650085731683</v>
+        <v>4590.918025901649</v>
       </c>
       <c r="S32">
-        <v>0.03933056486447915</v>
+        <v>0.02530190436725575</v>
       </c>
       <c r="T32">
-        <v>0.03137109900681658</v>
+        <v>0.01964959495560797</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H33">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I33">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J33">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>69.312236</v>
       </c>
       <c r="O33">
-        <v>0.1344732272645348</v>
+        <v>0.1325950441213806</v>
       </c>
       <c r="P33">
-        <v>0.1478207121802869</v>
+        <v>0.1441203999745836</v>
       </c>
       <c r="Q33">
-        <v>873.0619382410707</v>
+        <v>787.304950675295</v>
       </c>
       <c r="R33">
-        <v>7857.557444169636</v>
+        <v>7085.744556077655</v>
       </c>
       <c r="S33">
-        <v>0.03593941930434319</v>
+        <v>0.02603441985781178</v>
       </c>
       <c r="T33">
-        <v>0.04299934739542584</v>
+        <v>0.03032770563540724</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H34">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I34">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J34">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>41.00989166666667</v>
+        <v>39.68490633333334</v>
       </c>
       <c r="N34">
-        <v>123.029675</v>
+        <v>119.054719</v>
       </c>
       <c r="O34">
-        <v>0.2386908632778325</v>
+        <v>0.2277529427655973</v>
       </c>
       <c r="P34">
-        <v>0.2623827368346512</v>
+        <v>0.2475495628382506</v>
       </c>
       <c r="Q34">
-        <v>1549.690685446492</v>
+        <v>1352.320673509308</v>
       </c>
       <c r="R34">
-        <v>13947.21616901843</v>
+        <v>12170.88606158377</v>
       </c>
       <c r="S34">
-        <v>0.06379270575980364</v>
+        <v>0.04471823042182338</v>
       </c>
       <c r="T34">
-        <v>0.0763241245783982</v>
+        <v>0.05209262722873528</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H35">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I35">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J35">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.2571535</v>
+        <v>19.3493775</v>
       </c>
       <c r="N35">
-        <v>42.514307</v>
+        <v>38.69875500000001</v>
       </c>
       <c r="O35">
-        <v>0.1237235240947616</v>
+        <v>0.1110466944105114</v>
       </c>
       <c r="P35">
-        <v>0.09066934644254382</v>
+        <v>0.08046602405264225</v>
       </c>
       <c r="Q35">
-        <v>803.2699292603096</v>
+        <v>659.3580691107051</v>
       </c>
       <c r="R35">
-        <v>4819.619575561857</v>
+        <v>3956.14841466423</v>
       </c>
       <c r="S35">
-        <v>0.03306644527468223</v>
+        <v>0.02180350167129061</v>
       </c>
       <c r="T35">
-        <v>0.02637467150776646</v>
+        <v>0.01693271661437592</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H36">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I36">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J36">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>17.46529166666667</v>
+        <v>31.225308</v>
       </c>
       <c r="N36">
-        <v>52.395875</v>
+        <v>93.67592400000001</v>
       </c>
       <c r="O36">
-        <v>0.1016536590537803</v>
+        <v>0.1792030382036889</v>
       </c>
       <c r="P36">
-        <v>0.1117435535885654</v>
+        <v>0.1947796293120408</v>
       </c>
       <c r="Q36">
-        <v>659.9822314682918</v>
+        <v>1064.047605162856</v>
       </c>
       <c r="R36">
-        <v>5939.840083214626</v>
+        <v>9576.428446465705</v>
       </c>
       <c r="S36">
-        <v>0.02716803597914447</v>
+        <v>0.03518568259700159</v>
       </c>
       <c r="T36">
-        <v>0.03250491632115732</v>
+        <v>0.04098808539659261</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H37">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I37">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J37">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>43.69120433333333</v>
+        <v>38.42773333333333</v>
       </c>
       <c r="N37">
-        <v>131.073613</v>
+        <v>115.2832</v>
       </c>
       <c r="O37">
-        <v>0.2542969721728885</v>
+        <v>0.2205379868347335</v>
       </c>
       <c r="P37">
-        <v>0.2795378700768406</v>
+        <v>0.2397074723480268</v>
       </c>
       <c r="Q37">
-        <v>1651.01271033934</v>
+        <v>1309.480682309689</v>
       </c>
       <c r="R37">
-        <v>14859.11439305406</v>
+        <v>11785.3261407872</v>
       </c>
       <c r="S37">
-        <v>0.06796360656063971</v>
+        <v>0.0433016074009225</v>
       </c>
       <c r="T37">
-        <v>0.08131435580523766</v>
+        <v>0.05044239164795924</v>
       </c>
     </row>
   </sheetData>
